--- a/docs/test1.xlsx
+++ b/docs/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Documents/ACI/ArmyBand_TextAnalysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA101A-5DB6-F740-9E01-4EFB178C7AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3F42FF-68E7-CB4C-96FC-805CBCB4222E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22820" windowHeight="12220" xr2:uid="{45056656-E7F8-4358-BC62-70D0567B878B}"/>
   </bookViews>
@@ -8467,7 +8467,7 @@
   <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H987" sqref="H987"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8508,227 +8508,227 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1">
-        <v>42829</v>
+        <v>42963</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>42829.472442129627</v>
+        <v>42969.803888888891</v>
       </c>
       <c r="H2" t="s">
-        <v>451</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1">
-        <v>42787</v>
+        <v>42696</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>42814.977789351855</v>
+        <v>42696.969525462962</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>42750</v>
+        <v>42366</v>
       </c>
       <c r="C4" t="s">
-        <v>491</v>
+        <v>942</v>
       </c>
       <c r="D4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
+        <v>943</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>42750.298773148148</v>
+        <v>42396.814745370371</v>
       </c>
       <c r="H4" t="s">
-        <v>493</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>42592</v>
+        <v>42069</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>1344</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>1344</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>42593.464849537035</v>
+        <v>42070.860625000001</v>
       </c>
       <c r="H5" t="s">
-        <v>666</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="B6" s="1">
-        <v>41920</v>
+        <v>41825</v>
       </c>
       <c r="C6" t="s">
-        <v>1563</v>
+        <v>1695</v>
       </c>
       <c r="D6" t="s">
-        <v>1564</v>
+        <v>1696</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>41921.417210648149</v>
+        <v>41826.495949074073</v>
       </c>
       <c r="H6" t="s">
-        <v>1565</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="B7" s="1">
-        <v>41623</v>
+        <v>41703</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>1990</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>1991</v>
       </c>
       <c r="E7" t="s">
-        <v>2252</v>
+        <v>155</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>41624.397372685184</v>
+        <v>41719.5387962963</v>
       </c>
       <c r="H7" t="s">
-        <v>2263</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>41532</v>
+        <v>41619</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>2286</v>
       </c>
       <c r="D8" t="s">
-        <v>2354</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
+        <v>2287</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>41546.661770833336</v>
+        <v>41619.07267361111</v>
       </c>
       <c r="H8" t="s">
-        <v>2355</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="B9" s="1">
-        <v>41348</v>
+        <v>41382</v>
       </c>
       <c r="C9" t="s">
-        <v>2601</v>
+        <v>2567</v>
       </c>
       <c r="D9" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>41355.321388888886</v>
+        <v>41404.610671296294</v>
       </c>
       <c r="H9" t="s">
-        <v>2602</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1">
-        <v>43025</v>
+        <v>42750</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>43026.505740740744</v>
+        <v>42750.298773148148</v>
       </c>
       <c r="H10" t="s">
-        <v>268</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8736,224 +8736,221 @@
         <v>112</v>
       </c>
       <c r="B11" s="1">
-        <v>42920</v>
+        <v>42592</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>640</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>42921.437662037039</v>
+        <v>42593.464849537035</v>
       </c>
       <c r="H11" t="s">
-        <v>364</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B12" s="1">
-        <v>42592</v>
+        <v>41920</v>
       </c>
       <c r="C12" t="s">
-        <v>663</v>
+        <v>1563</v>
       </c>
       <c r="D12" t="s">
-        <v>640</v>
-      </c>
-      <c r="E12" t="s">
-        <v>206</v>
+        <v>1564</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>42593.474178240744</v>
+        <v>41921.417210648149</v>
       </c>
       <c r="H12" t="s">
-        <v>664</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1">
-        <v>42580</v>
+        <v>41623</v>
       </c>
       <c r="C13" t="s">
-        <v>683</v>
+        <v>497</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>2252</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>42580.920601851853</v>
+        <v>41624.397372685184</v>
       </c>
       <c r="H13" t="s">
-        <v>685</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1">
-        <v>42343</v>
+        <v>41532</v>
       </c>
       <c r="C14" t="s">
-        <v>988</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>989</v>
+        <v>2354</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>42349.253553240742</v>
+        <v>41546.661770833336</v>
       </c>
       <c r="H14" t="s">
-        <v>990</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1">
-        <v>42092</v>
+        <v>41348</v>
       </c>
       <c r="C15" t="s">
-        <v>1256</v>
+        <v>2601</v>
       </c>
       <c r="D15" t="s">
-        <v>1257</v>
+        <v>2564</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>42122.817615740743</v>
+        <v>41355.321388888886</v>
       </c>
       <c r="H15" t="s">
-        <v>1258</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1">
-        <v>41991</v>
+        <v>42080</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>1292</v>
       </c>
       <c r="D16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+        <v>1293</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>41992.199236111112</v>
+        <v>42080.729004629633</v>
       </c>
       <c r="H16" t="s">
-        <v>1379</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
       <c r="B17" s="1">
-        <v>41957</v>
+        <v>42829</v>
       </c>
       <c r="C17" t="s">
-        <v>1487</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>1488</v>
+        <v>450</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>41958.058449074073</v>
+        <v>42829.472442129627</v>
       </c>
       <c r="H17" t="s">
-        <v>1489</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="B18" s="1">
-        <v>41951</v>
+        <v>42787</v>
       </c>
       <c r="C18" t="s">
-        <v>1496</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>1497</v>
+        <v>463</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>41955.468715277777</v>
+        <v>42814.977789351855</v>
       </c>
       <c r="H18" t="s">
-        <v>1498</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1">
-        <v>41641</v>
+        <v>43025</v>
       </c>
       <c r="C19" t="s">
-        <v>2136</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" s="2">
-        <v>41641.27480324074</v>
+        <v>43026.505740740744</v>
       </c>
       <c r="H19" t="s">
-        <v>2138</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -8961,541 +8958,547 @@
         <v>112</v>
       </c>
       <c r="B20" s="1">
-        <v>41619</v>
+        <v>42920</v>
       </c>
       <c r="C20" t="s">
-        <v>2273</v>
+        <v>362</v>
       </c>
       <c r="D20" t="s">
-        <v>2274</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" s="2">
-        <v>41622.410729166666</v>
+        <v>42921.437662037039</v>
       </c>
       <c r="H20" t="s">
-        <v>2275</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1">
-        <v>41429</v>
+        <v>42592</v>
       </c>
       <c r="C21" t="s">
-        <v>2536</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>2537</v>
+        <v>640</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>41435.678969907407</v>
+        <v>42593.474178240744</v>
       </c>
       <c r="H21" t="s">
-        <v>2538</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>41396</v>
+        <v>42580</v>
       </c>
       <c r="C22" t="s">
-        <v>2566</v>
+        <v>683</v>
       </c>
       <c r="D22" t="s">
-        <v>2566</v>
+        <v>684</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" s="2">
-        <v>41410.810324074075</v>
+        <v>42580.920601851853</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B23" s="1">
-        <v>43444</v>
+        <v>42343</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>988</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+        <v>989</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>43445.604780092595</v>
+        <v>42349.253553240742</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>990</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="B24" s="1">
-        <v>42874</v>
+        <v>42092</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
+        <v>1256</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>1257</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>42877.627939814818</v>
+        <v>42122.817615740743</v>
       </c>
       <c r="H24" t="s">
-        <v>412</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>452</v>
       </c>
       <c r="B25" s="1">
-        <v>42713</v>
+        <v>41991</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>505</v>
       </c>
       <c r="D25" t="s">
-        <v>509</v>
+        <v>1378</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>42714.569386574076</v>
+        <v>41992.199236111112</v>
       </c>
       <c r="H25" t="s">
-        <v>510</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="B26" s="1">
-        <v>42519</v>
+        <v>41957</v>
       </c>
       <c r="C26" t="s">
-        <v>849</v>
+        <v>1487</v>
       </c>
       <c r="D26" t="s">
-        <v>850</v>
+        <v>1488</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>42523.008252314816</v>
+        <v>41958.058449074073</v>
       </c>
       <c r="H26" t="s">
-        <v>851</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
-        <v>42344</v>
+        <v>41951</v>
       </c>
       <c r="C27" t="s">
-        <v>985</v>
+        <v>1496</v>
       </c>
       <c r="D27" t="s">
-        <v>986</v>
+        <v>1497</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <v>42349.415046296293</v>
+        <v>41955.468715277777</v>
       </c>
       <c r="H27" t="s">
-        <v>987</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>42343</v>
+        <v>41641</v>
       </c>
       <c r="C28" t="s">
-        <v>991</v>
+        <v>2136</v>
       </c>
       <c r="D28" t="s">
-        <v>992</v>
+        <v>2137</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>42348.575381944444</v>
+        <v>41641.27480324074</v>
       </c>
       <c r="H28" t="s">
-        <v>993</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1">
-        <v>42223</v>
+        <v>41619</v>
       </c>
       <c r="C29" t="s">
-        <v>1100</v>
+        <v>2273</v>
       </c>
       <c r="D29" t="s">
-        <v>1101</v>
+        <v>2274</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
-        <v>42223.997870370367</v>
+        <v>41622.410729166666</v>
       </c>
       <c r="H29" t="s">
-        <v>1102</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1">
-        <v>42167</v>
+        <v>41429</v>
       </c>
       <c r="C30" t="s">
-        <v>1180</v>
+        <v>2536</v>
       </c>
       <c r="D30" t="s">
-        <v>1181</v>
+        <v>2537</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>42168.720509259256</v>
+        <v>41435.678969907407</v>
       </c>
       <c r="H30" t="s">
-        <v>1182</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1">
-        <v>42079</v>
+        <v>41396</v>
       </c>
       <c r="C31" t="s">
-        <v>1288</v>
+        <v>2566</v>
       </c>
       <c r="D31" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1290</v>
+        <v>2566</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2">
-        <v>42101.598460648151</v>
+        <v>41410.810324074075</v>
       </c>
       <c r="H31" t="s">
-        <v>1291</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1482</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>41945</v>
+        <v>43444</v>
       </c>
       <c r="C32" t="s">
-        <v>1483</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>1484</v>
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>41959.674224537041</v>
+        <v>43445.604780092595</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1">
-        <v>41816</v>
+        <v>42874</v>
       </c>
       <c r="C33" t="s">
-        <v>1739</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>41817.927893518521</v>
+        <v>42877.627939814818</v>
       </c>
       <c r="H33" t="s">
-        <v>1741</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1">
-        <v>41795</v>
+        <v>42713</v>
       </c>
       <c r="C34" t="s">
-        <v>1767</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>1768</v>
+        <v>509</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>41796.367048611108</v>
+        <v>42714.569386574076</v>
       </c>
       <c r="H34" t="s">
-        <v>1769</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1">
-        <v>41766</v>
+        <v>42519</v>
       </c>
       <c r="C35" t="s">
-        <v>1813</v>
+        <v>849</v>
       </c>
       <c r="D35" t="s">
-        <v>1811</v>
+        <v>850</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>41767.643645833334</v>
+        <v>42523.008252314816</v>
       </c>
       <c r="H35" t="s">
-        <v>1814</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1">
-        <v>41764</v>
+        <v>42344</v>
       </c>
       <c r="C36" t="s">
-        <v>1810</v>
+        <v>985</v>
       </c>
       <c r="D36" t="s">
-        <v>1840</v>
+        <v>986</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <v>41765.464861111112</v>
+        <v>42349.415046296293</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="B37" s="1">
-        <v>41719</v>
+        <v>42343</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>991</v>
       </c>
       <c r="D37" t="s">
-        <v>1921</v>
+        <v>992</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <v>41731.363252314812</v>
+        <v>42348.575381944444</v>
       </c>
       <c r="H37" t="s">
-        <v>1929</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B38" s="1">
-        <v>41626</v>
+        <v>42223</v>
       </c>
       <c r="C38" t="s">
-        <v>2146</v>
+        <v>1100</v>
       </c>
       <c r="D38" t="s">
-        <v>2147</v>
+        <v>1101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" s="2">
-        <v>41635.823958333334</v>
+        <v>42223.997870370367</v>
       </c>
       <c r="H38" t="s">
-        <v>2148</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="B39" s="1">
-        <v>41626</v>
+        <v>42167</v>
       </c>
       <c r="C39" t="s">
-        <v>2154</v>
+        <v>1180</v>
       </c>
       <c r="D39" t="s">
-        <v>2140</v>
+        <v>1181</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>41627.9371875</v>
+        <v>42168.720509259256</v>
       </c>
       <c r="H39" t="s">
-        <v>2155</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1">
-        <v>41619</v>
+        <v>42079</v>
       </c>
       <c r="C40" t="s">
-        <v>1409</v>
+        <v>1288</v>
       </c>
       <c r="D40" t="s">
-        <v>2278</v>
+        <v>1289</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1290</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" s="2">
-        <v>41620.99009259259</v>
+        <v>42101.598460648151</v>
       </c>
       <c r="H40" t="s">
-        <v>2279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>1482</v>
       </c>
       <c r="B41" s="1">
-        <v>41588</v>
+        <v>41945</v>
       </c>
       <c r="C41" t="s">
-        <v>2332</v>
+        <v>1483</v>
       </c>
       <c r="D41" t="s">
-        <v>2333</v>
+        <v>1484</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>41592.361076388886</v>
+        <v>41959.674224537041</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
@@ -9503,184 +9506,175 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1">
-        <v>41588</v>
+        <v>41816</v>
       </c>
       <c r="C42" t="s">
-        <v>2337</v>
+        <v>1739</v>
       </c>
       <c r="D42" t="s">
-        <v>2338</v>
+        <v>1740</v>
       </c>
       <c r="E42" t="s">
-        <v>613</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>41590.50508101852</v>
+        <v>41817.927893518521</v>
       </c>
       <c r="H42" t="s">
-        <v>2339</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1">
-        <v>41511</v>
+        <v>41795</v>
       </c>
       <c r="C43" t="s">
-        <v>2375</v>
+        <v>1767</v>
       </c>
       <c r="D43" t="s">
-        <v>2376</v>
+        <v>1768</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>41512.438437500001</v>
+        <v>41796.367048611108</v>
       </c>
       <c r="H43" t="s">
-        <v>2377</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
-        <v>41507</v>
+        <v>41766</v>
       </c>
       <c r="C44" t="s">
-        <v>2386</v>
+        <v>1813</v>
       </c>
       <c r="D44" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E44" t="s">
-        <v>704</v>
+        <v>1811</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <v>41507.632754629631</v>
+        <v>41767.643645833334</v>
       </c>
       <c r="H44" t="s">
-        <v>2388</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
-        <v>41462</v>
+        <v>41764</v>
       </c>
       <c r="C45" t="s">
-        <v>2440</v>
+        <v>1810</v>
       </c>
       <c r="D45" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
+        <v>1840</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" s="2">
-        <v>41463.624016203707</v>
+        <v>41765.464861111112</v>
       </c>
       <c r="H45" t="s">
-        <v>2442</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="B46" s="1">
-        <v>41462</v>
+        <v>41719</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>2451</v>
+        <v>1921</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <v>41463.504930555559</v>
+        <v>41731.363252314812</v>
       </c>
       <c r="H46" t="s">
-        <v>2452</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>41267</v>
+        <v>41626</v>
       </c>
       <c r="C47" t="s">
-        <v>2636</v>
+        <v>2146</v>
       </c>
       <c r="D47" t="s">
-        <v>2637</v>
-      </c>
-      <c r="E47" t="s">
-        <v>85</v>
+        <v>2147</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <v>41267.958518518521</v>
+        <v>41635.823958333334</v>
       </c>
       <c r="H47" t="s">
-        <v>2638</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
-        <v>42963</v>
+        <v>41626</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>2154</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>2140</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="2">
-        <v>42969.803888888891</v>
+        <v>41627.9371875</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -9688,296 +9682,302 @@
         <v>112</v>
       </c>
       <c r="B49" s="1">
-        <v>42696</v>
+        <v>41619</v>
       </c>
       <c r="C49" t="s">
-        <v>523</v>
+        <v>1409</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
-      </c>
-      <c r="E49" t="s">
-        <v>155</v>
+        <v>2278</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2">
-        <v>42696.969525462962</v>
+        <v>41620.99009259259</v>
       </c>
       <c r="H49" t="s">
-        <v>525</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B50" s="1">
-        <v>42366</v>
+        <v>41588</v>
       </c>
       <c r="C50" t="s">
-        <v>942</v>
+        <v>2332</v>
       </c>
       <c r="D50" t="s">
-        <v>943</v>
+        <v>2333</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="2">
-        <v>42396.814745370371</v>
+        <v>41592.361076388886</v>
       </c>
       <c r="H50" t="s">
-        <v>944</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>654</v>
+        <v>181</v>
       </c>
       <c r="B51" s="1">
-        <v>42222</v>
+        <v>41588</v>
       </c>
       <c r="C51" t="s">
-        <v>1103</v>
+        <v>2337</v>
       </c>
       <c r="D51" t="s">
-        <v>1104</v>
+        <v>2338</v>
+      </c>
+      <c r="E51" t="s">
+        <v>613</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="2">
-        <v>42223.660416666666</v>
+        <v>41590.50508101852</v>
       </c>
       <c r="H51" t="s">
-        <v>1105</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>426</v>
+        <v>217</v>
       </c>
       <c r="B52" s="1">
-        <v>42186</v>
+        <v>41511</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>2375</v>
       </c>
       <c r="D52" t="s">
-        <v>1158</v>
+        <v>2376</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2">
-        <v>42186.930578703701</v>
+        <v>41512.438437500001</v>
       </c>
       <c r="H52" t="s">
-        <v>1159</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B53" s="1">
-        <v>42080</v>
+        <v>41507</v>
       </c>
       <c r="C53" t="s">
-        <v>1292</v>
+        <v>2386</v>
       </c>
       <c r="D53" t="s">
-        <v>1293</v>
+        <v>2387</v>
+      </c>
+      <c r="E53" t="s">
+        <v>704</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2">
-        <v>42080.729004629633</v>
+        <v>41507.632754629631</v>
       </c>
       <c r="H53" t="s">
-        <v>1323</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1">
-        <v>42069</v>
+        <v>41462</v>
       </c>
       <c r="C54" t="s">
-        <v>1344</v>
+        <v>2440</v>
       </c>
       <c r="D54" t="s">
-        <v>1344</v>
+        <v>2441</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2">
-        <v>42070.860625000001</v>
+        <v>41463.624016203707</v>
       </c>
       <c r="H54" t="s">
-        <v>1345</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="B55" s="1">
-        <v>41825</v>
+        <v>41462</v>
       </c>
       <c r="C55" t="s">
-        <v>1695</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>1696</v>
+        <v>2451</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="2">
-        <v>41826.495949074073</v>
+        <v>41463.504930555559</v>
       </c>
       <c r="H55" t="s">
-        <v>1697</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="B56" s="1">
-        <v>41759</v>
+        <v>41267</v>
       </c>
       <c r="C56" t="s">
-        <v>1887</v>
+        <v>2636</v>
       </c>
       <c r="D56" t="s">
-        <v>1868</v>
+        <v>2637</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2">
-        <v>41760.520810185182</v>
+        <v>41267.958518518521</v>
       </c>
       <c r="H56" t="s">
-        <v>1888</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>416</v>
+        <v>654</v>
       </c>
       <c r="B57" s="1">
-        <v>41703</v>
+        <v>42222</v>
       </c>
       <c r="C57" t="s">
-        <v>1990</v>
+        <v>1103</v>
       </c>
       <c r="D57" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
+        <v>1104</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>41719.5387962963</v>
+        <v>42223.660416666666</v>
       </c>
       <c r="H57" t="s">
-        <v>1992</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>426</v>
       </c>
       <c r="B58" s="1">
-        <v>41619</v>
+        <v>42186</v>
       </c>
       <c r="C58" t="s">
-        <v>2286</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>2287</v>
+        <v>1158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2">
-        <v>41619.07267361111</v>
+        <v>42186.930578703701</v>
       </c>
       <c r="H58" t="s">
-        <v>2288</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="B59" s="1">
-        <v>41462</v>
+        <v>41759</v>
       </c>
       <c r="C59" t="s">
-        <v>2453</v>
+        <v>1887</v>
       </c>
       <c r="D59" t="s">
-        <v>2454</v>
+        <v>1868</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2">
-        <v>41463.430543981478</v>
+        <v>41760.520810185182</v>
       </c>
       <c r="H59" t="s">
-        <v>2455</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1">
-        <v>41382</v>
+        <v>41462</v>
       </c>
       <c r="C60" t="s">
-        <v>2567</v>
+        <v>2453</v>
       </c>
       <c r="D60" t="s">
-        <v>2568</v>
+        <v>2454</v>
+      </c>
+      <c r="E60" t="s">
+        <v>357</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" s="2">
-        <v>41404.610671296294</v>
+        <v>41463.430543981478</v>
       </c>
       <c r="H60" t="s">
-        <v>2569</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -9997,7 +9997,7 @@
         <v>39</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61" s="2">
         <v>41251.930752314816</v>
@@ -33189,7 +33189,11 @@
       <c r="H1005" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1986" xr:uid="{729A8FB2-5F73-4EAE-AD3F-B0E3278CAC5D}"/>
+  <autoFilter ref="A1:H1986" xr:uid="{729A8FB2-5F73-4EAE-AD3F-B0E3278CAC5D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1006">
+      <sortCondition ref="F1:F1986"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1005">
     <sortCondition ref="F2:F1005"/>
   </sortState>

--- a/docs/test1.xlsx
+++ b/docs/test1.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Documents/ACI/ArmyBand_TextAnalysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3F42FF-68E7-CB4C-96FC-805CBCB4222E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B732D80-6CA0-4340-A250-58DDE1CDC614}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22820" windowHeight="12220" xr2:uid="{45056656-E7F8-4358-BC62-70D0567B878B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1986</definedName>
@@ -33201,16 +33200,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2659154-FB88-4EAC-8E0C-0A014AA77588}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>